--- a/Senior research avg 2.xlsx
+++ b/Senior research avg 2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevinruiz/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F390565-02C9-7C4E-A5DF-07FD4AEC3E42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CA2EB85-8AF0-F641-9C66-CDBED9896505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="480" windowWidth="25480" windowHeight="16280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="760" yWindow="460" windowWidth="19920" windowHeight="16260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="102">
   <si>
     <t>Speedtest</t>
   </si>
@@ -283,6 +283,60 @@
   </si>
   <si>
     <t>Download AVG W/ With programs</t>
+  </si>
+  <si>
+    <t>YouTube</t>
+  </si>
+  <si>
+    <t>ControlYT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Low Rise </t>
+  </si>
+  <si>
+    <t>Constitution Hall</t>
+  </si>
+  <si>
+    <t>ControNT</t>
+  </si>
+  <si>
+    <t>ControlSPO</t>
+  </si>
+  <si>
+    <t>MGBTS Difference</t>
+  </si>
+  <si>
+    <t>Best Hall VS Worst Hall (Uploading Speed)</t>
+  </si>
+  <si>
+    <t>Mead Hall</t>
+  </si>
+  <si>
+    <t>Best Hall VS Worst Hall (Download Speed)</t>
+  </si>
+  <si>
+    <t>Niejadlik Hall</t>
+  </si>
+  <si>
+    <t>Upload AVG W/ Programs</t>
+  </si>
+  <si>
+    <t>Download AVG W/ Programs</t>
+  </si>
+  <si>
+    <t>Hall Placement</t>
+  </si>
+  <si>
+    <t>1ST</t>
+  </si>
+  <si>
+    <t>2ND</t>
+  </si>
+  <si>
+    <t>3RD</t>
+  </si>
+  <si>
+    <t>4TH</t>
   </si>
 </sst>
 </file>
@@ -299,10 +353,12 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -329,7 +385,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -420,6 +476,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -433,7 +501,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -458,52 +526,65 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -526,6 +607,3381 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Best Hall</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Vs Worst Hall (Upload Speed)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$M$60</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Low Rise </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$N$59:$S$59</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>ControlYT</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>YouTube</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ControNT</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Netflix</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ControlSPO</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Spotify</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$60:$S$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>129.66125</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>127.94375000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>138.02625</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>132.72125</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>104.40375</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>110.88500000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3CCB-274C-A8D3-91EB4126D61A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$M$61</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Constitution Hall</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$N$59:$S$59</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>ControlYT</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>YouTube</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ControNT</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Netflix</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ControlSPO</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Spotify</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$61:$S$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>99.433750000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>96.291250000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>91.759999999999991</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>94.408749999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>92.936250000000015</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>90.872500000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3CCB-274C-A8D3-91EB4126D61A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$M$62</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MGBTS Difference</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$N$59:$S$59</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>ControlYT</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>YouTube</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ControNT</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Netflix</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ControlSPO</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Spotify</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$62:$S$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>30.227499999999992</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31.652500000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>46.266250000000014</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>38.3125</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.467499999999987</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20.012500000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3CCB-274C-A8D3-91EB4126D61A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1868598048"/>
+        <c:axId val="1868614864"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1868598048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1868614864"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1868614864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1868598048"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Best</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Hall VS Worst Hall (Download Speed)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$60</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mead Hall</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$E$59:$J$59</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>ControlYT</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>YouTube</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ControNT</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Netflix</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ControlSPO</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Spotify</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$60:$J$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>102.63124999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>95.957499999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>103.95875000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>101.59250000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>110.11625000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>105.32250000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FB0A-364D-AEA3-55B5AE68F87F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$61</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Constitution Hall</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$E$59:$J$59</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>ControlYT</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>YouTube</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ControNT</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Netflix</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ControlSPO</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Spotify</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$61:$J$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>70.068749999999994</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>66.575000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>59.266249999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>59.266249999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>94.741249999999994</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>89.003749999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FB0A-364D-AEA3-55B5AE68F87F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$62</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MGBTS Difference</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$E$59:$J$59</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>ControlYT</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>YouTube</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ControNT</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Netflix</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ControlSPO</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Spotify</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$62:$J$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>32.5625</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29.382499999999993</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44.69250000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42.326250000000016</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.375000000000014</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16.318750000000009</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-FB0A-364D-AEA3-55B5AE68F87F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1897886288"/>
+        <c:axId val="1901546704"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1897886288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1901546704"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1901546704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1897886288"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>AVG</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> With/Without Programs &amp; Upload/Download Speed</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$86</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mead Hall</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$J$85:$Q$85</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Upload AVG W/ No programs</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Download  AVG W/ No programs</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Upload AVG W/ Programs</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Download AVG W/ Programs</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$J$86:$Q$86</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>106.50833333333333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>105.56875000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>107.36750000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100.9575</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-290A-E449-B4D8-D54B9409F0C9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$87</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Constitution Hall</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$J$85:$Q$85</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Upload AVG W/ No programs</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Download  AVG W/ No programs</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Upload AVG W/ Programs</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Download AVG W/ Programs</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$J$87:$Q$87</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>94.71</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>75.917083333333323</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>93.857500000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>71.614999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-290A-E449-B4D8-D54B9409F0C9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$88</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Low Rise </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$J$85:$Q$85</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Upload AVG W/ No programs</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Download  AVG W/ No programs</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Upload AVG W/ Programs</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Download AVG W/ Programs</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$J$88:$Q$88</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>124.03041666666667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>94.517083333333332</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>123.85000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>91.754583333333343</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-290A-E449-B4D8-D54B9409F0C9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$89</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Niejadlik Hall</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$J$85:$Q$85</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Upload AVG W/ No programs</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Download  AVG W/ No programs</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Upload AVG W/ Programs</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Download AVG W/ Programs</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$J$89:$Q$89</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>104.20625</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>93.824583333333337</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>93.552083333333329</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>90.997500000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-290A-E449-B4D8-D54B9409F0C9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1820719536"/>
+        <c:axId val="1864975536"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1820719536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1864975536"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1864975536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1820719536"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>17343</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>24273</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>846668</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>16934</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F51FAA7F-D832-5D46-BEEB-ABA0C019B219}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>18435</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>12307</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>887470</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>91807</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{924DCE06-3165-BB4B-835A-444CD8235C92}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1098550</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16C98817-A420-3C43-9F73-99B3772E83CC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -729,82 +4185,82 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Y53"/>
+  <dimension ref="A1:Y117"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="69" workbookViewId="0">
-      <selection activeCell="V38" sqref="V38"/>
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="R105" sqref="R105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="14" t="s">
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="14" t="s">
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="14" t="s">
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="32"/>
     </row>
     <row r="2" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="15"/>
-      <c r="F2" s="14" t="s">
+      <c r="E2" s="32"/>
+      <c r="F2" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="15"/>
-      <c r="H2" s="14" t="s">
+      <c r="G2" s="32"/>
+      <c r="H2" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="15"/>
-      <c r="J2" s="14" t="s">
+      <c r="I2" s="32"/>
+      <c r="J2" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="15"/>
-      <c r="L2" s="14" t="s">
+      <c r="K2" s="32"/>
+      <c r="L2" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="15"/>
-      <c r="N2" s="14" t="s">
+      <c r="M2" s="32"/>
+      <c r="N2" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="O2" s="15"/>
-      <c r="P2" s="14" t="s">
+      <c r="O2" s="32"/>
+      <c r="P2" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="14" t="s">
+      <c r="Q2" s="32"/>
+      <c r="R2" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="S2" s="15"/>
+      <c r="S2" s="32"/>
     </row>
     <row r="3" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="15"/>
+      <c r="C3" s="32"/>
       <c r="E3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="3"/>
@@ -818,10 +4274,10 @@
       <c r="Q3" s="2"/>
       <c r="R3" s="3"/>
       <c r="S3" s="2"/>
-      <c r="T3" s="28" t="s">
+      <c r="T3" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="U3" s="27" t="s">
+      <c r="U3" s="15" t="s">
         <v>75</v>
       </c>
     </row>
@@ -829,10 +4285,10 @@
       <c r="A4" s="4">
         <v>0.60416666666666663</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="15"/>
+      <c r="C4" s="32"/>
       <c r="D4" s="5">
         <v>61.2</v>
       </c>
@@ -893,10 +4349,10 @@
       <c r="A5" s="4">
         <v>0.64583333333333337</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="15"/>
+      <c r="C5" s="32"/>
       <c r="D5" s="5">
         <v>114.45</v>
       </c>
@@ -957,10 +4413,10 @@
       <c r="A6" s="4">
         <v>0.875</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="15"/>
+      <c r="C6" s="32"/>
       <c r="D6" s="5">
         <v>115</v>
       </c>
@@ -1021,10 +4477,10 @@
       <c r="A7" s="4">
         <v>0.91666666666666663</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="15"/>
+      <c r="C7" s="32"/>
       <c r="D7" s="5">
         <v>112.85</v>
       </c>
@@ -1085,10 +4541,10 @@
       <c r="A8" s="4">
         <v>0.66666666666666663</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="15"/>
+      <c r="C8" s="32"/>
       <c r="D8" s="5">
         <v>102.23</v>
       </c>
@@ -1149,10 +4605,10 @@
       <c r="A9" s="4">
         <v>0.70833333333333337</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="15"/>
+      <c r="C9" s="32"/>
       <c r="D9" s="5">
         <v>118.22</v>
       </c>
@@ -1213,10 +4669,10 @@
       <c r="A10" s="4">
         <v>0.875</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="15"/>
+      <c r="C10" s="32"/>
       <c r="D10" s="5">
         <v>112.4</v>
       </c>
@@ -1277,10 +4733,10 @@
       <c r="A11" s="4">
         <v>0.91666666666666663</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="15"/>
+      <c r="C11" s="32"/>
       <c r="D11" s="5">
         <v>107.06</v>
       </c>
@@ -1341,10 +4797,10 @@
       <c r="A12" s="4">
         <v>0.66666666666666663</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="15"/>
+      <c r="C12" s="32"/>
       <c r="D12" s="5">
         <v>108.88</v>
       </c>
@@ -1405,10 +4861,10 @@
       <c r="A13" s="4">
         <v>0.70833333333333337</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="15"/>
+      <c r="C13" s="32"/>
       <c r="D13" s="5">
         <v>101.95</v>
       </c>
@@ -1469,10 +4925,10 @@
       <c r="A14" s="4">
         <v>0.60416666666666663</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="15"/>
+      <c r="C14" s="32"/>
       <c r="D14" s="5">
         <v>116.13</v>
       </c>
@@ -1533,10 +4989,10 @@
       <c r="A15" s="4">
         <v>0.64583333333333337</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="15"/>
+      <c r="C15" s="32"/>
       <c r="D15" s="5">
         <v>117.28</v>
       </c>
@@ -1597,10 +5053,10 @@
       <c r="A16" s="4">
         <v>0.66666666666666663</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="15"/>
+      <c r="C16" s="32"/>
       <c r="D16" s="5">
         <v>93.09</v>
       </c>
@@ -1657,14 +5113,14 @@
         <v>78.400000000000006</v>
       </c>
     </row>
-    <row r="17" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="4">
         <v>0.70833333333333337</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="15"/>
+      <c r="C17" s="32"/>
       <c r="D17" s="5">
         <v>121.28</v>
       </c>
@@ -1721,14 +5177,14 @@
         <v>87.8</v>
       </c>
     </row>
-    <row r="18" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="4">
         <v>0.60416666666666663</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="15"/>
+      <c r="C18" s="32"/>
       <c r="D18" s="5">
         <v>95.87</v>
       </c>
@@ -1785,14 +5241,14 @@
         <v>76.8</v>
       </c>
     </row>
-    <row r="19" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="4">
         <v>0.64583333333333337</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="15"/>
+      <c r="C19" s="32"/>
       <c r="D19" s="5">
         <v>94.11</v>
       </c>
@@ -1849,14 +5305,14 @@
         <v>77.400000000000006</v>
       </c>
     </row>
-    <row r="20" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="4">
         <v>0.875</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="15"/>
+      <c r="C20" s="32"/>
       <c r="D20" s="5">
         <v>117.4</v>
       </c>
@@ -1913,14 +5369,14 @@
         <v>95.1</v>
       </c>
     </row>
-    <row r="21" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="4">
         <v>0.91666666666666663</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="15"/>
+      <c r="C21" s="32"/>
       <c r="D21" s="5">
         <v>104.99</v>
       </c>
@@ -1977,14 +5433,14 @@
         <v>88.7</v>
       </c>
     </row>
-    <row r="22" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="4">
         <v>0.60416666666666663</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="15"/>
+      <c r="C22" s="32"/>
       <c r="D22" s="5">
         <v>127.85</v>
       </c>
@@ -2041,14 +5497,14 @@
         <v>107.8</v>
       </c>
     </row>
-    <row r="23" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="4">
         <v>0.64583333333333337</v>
       </c>
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="15"/>
+      <c r="C23" s="32"/>
       <c r="D23" s="5">
         <v>137.13999999999999</v>
       </c>
@@ -2105,14 +5561,14 @@
         <v>111.8</v>
       </c>
     </row>
-    <row r="24" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="4">
         <v>0.875</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="15"/>
+      <c r="C24" s="32"/>
       <c r="D24" s="5">
         <v>139.9</v>
       </c>
@@ -2169,14 +5625,14 @@
         <v>113.2</v>
       </c>
     </row>
-    <row r="25" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="4">
         <v>0.91666666666666663</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="15"/>
+      <c r="C25" s="32"/>
       <c r="D25" s="5">
         <v>136.81</v>
       </c>
@@ -2233,14 +5689,14 @@
         <v>117.6</v>
       </c>
     </row>
-    <row r="26" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="4">
         <v>0.66666666666666663</v>
       </c>
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="15"/>
+      <c r="C26" s="32"/>
       <c r="D26" s="5">
         <v>108.01</v>
       </c>
@@ -2297,14 +5753,14 @@
         <v>100.2</v>
       </c>
     </row>
-    <row r="27" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="9">
         <v>0.70833333333333337</v>
       </c>
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="15"/>
+      <c r="C27" s="32"/>
       <c r="D27" s="5">
         <v>114.22</v>
       </c>
@@ -2361,867 +5817,1319 @@
         <v>100.5</v>
       </c>
     </row>
-    <row r="30" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="26" t="s">
+      <c r="C30" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-      <c r="H30" s="26" t="s">
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="H30" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="I30" s="21"/>
-      <c r="J30" s="21"/>
-      <c r="K30" s="21"/>
-      <c r="M30" s="26" t="s">
+      <c r="I30" s="19"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="19"/>
+      <c r="M30" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="N30" s="21"/>
-      <c r="O30" s="21"/>
-      <c r="P30" s="21"/>
-      <c r="R30" s="26" t="s">
+      <c r="N30" s="19"/>
+      <c r="O30" s="19"/>
+      <c r="P30" s="19"/>
+      <c r="R30" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="S30" s="21"/>
-      <c r="T30" s="21"/>
-      <c r="U30" s="21"/>
+      <c r="S30" s="19"/>
+      <c r="T30" s="19"/>
+      <c r="U30" s="19"/>
     </row>
-    <row r="31" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C31" s="23" t="s">
+      <c r="C31" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="H31" s="23" t="s">
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="H31" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="I31" s="17"/>
-      <c r="J31" s="17"/>
-      <c r="K31" s="17"/>
-      <c r="M31" s="23" t="s">
+      <c r="I31" s="30"/>
+      <c r="J31" s="30"/>
+      <c r="K31" s="30"/>
+      <c r="M31" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="N31" s="17"/>
-      <c r="O31" s="17"/>
-      <c r="P31" s="17"/>
-      <c r="R31" s="23" t="s">
+      <c r="N31" s="30"/>
+      <c r="O31" s="30"/>
+      <c r="P31" s="30"/>
+      <c r="R31" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="S31" s="17"/>
-      <c r="T31" s="17"/>
-      <c r="U31" s="17"/>
+      <c r="S31" s="30"/>
+      <c r="T31" s="30"/>
+      <c r="U31" s="30"/>
     </row>
-    <row r="32" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C32" s="16" t="s">
+      <c r="C32" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16" t="s">
+      <c r="D32" s="17"/>
+      <c r="E32" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="F32" s="16"/>
-      <c r="H32" s="25" t="s">
+      <c r="F32" s="17"/>
+      <c r="H32" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="I32" s="16"/>
-      <c r="J32" s="25" t="s">
+      <c r="I32" s="17"/>
+      <c r="J32" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="K32" s="16"/>
-      <c r="M32" s="25" t="s">
+      <c r="K32" s="17"/>
+      <c r="M32" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="N32" s="16"/>
-      <c r="O32" s="25" t="s">
+      <c r="N32" s="17"/>
+      <c r="O32" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="P32" s="16"/>
-      <c r="R32" s="25" t="s">
+      <c r="P32" s="17"/>
+      <c r="R32" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="S32" s="16"/>
-      <c r="T32" s="25" t="s">
+      <c r="S32" s="17"/>
+      <c r="T32" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="U32" s="16"/>
-      <c r="W32" s="25" t="s">
+      <c r="U32" s="17"/>
+      <c r="W32" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="X32" s="16"/>
+      <c r="X32" s="20"/>
+      <c r="Y32" s="20"/>
     </row>
     <row r="33" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C33" s="31">
+      <c r="C33" s="23">
         <f>AVERAGE(D4:D5,H4:H5,L4:L5,P4:P5)</f>
         <v>86.256249999999994</v>
       </c>
-      <c r="D33" s="31"/>
-      <c r="E33" s="16">
+      <c r="D33" s="23"/>
+      <c r="E33" s="17">
         <f>AVERAGE(F4:F5,J4:J5,N4:N5,R4:R5)</f>
         <v>91.055000000000007</v>
       </c>
-      <c r="F33" s="16"/>
-      <c r="H33" s="16">
+      <c r="F33" s="17"/>
+      <c r="H33" s="17">
         <f>AVERAGE(D10:D11,H10:H11,L10:L11,P10:P11)</f>
         <v>110.47</v>
       </c>
-      <c r="I33" s="16"/>
-      <c r="J33" s="30">
+      <c r="I33" s="17"/>
+      <c r="J33" s="28">
         <f>AVERAGE(F10:F11,J10:J11,N10:N11,R10:R11)</f>
         <v>102.63124999999999</v>
       </c>
-      <c r="K33" s="30"/>
-      <c r="M33" s="16">
+      <c r="K33" s="28"/>
+      <c r="M33" s="17">
         <f>AVERAGE(D16:D17,H16:H17,L16:L17,P16:P17)</f>
         <v>99.433750000000003</v>
       </c>
-      <c r="N33" s="16"/>
-      <c r="O33" s="31">
+      <c r="N33" s="17"/>
+      <c r="O33" s="23">
         <f>AVERAGE(F16:F17,J16:J17,N16:N17,R16:R17)</f>
         <v>70.068749999999994</v>
       </c>
-      <c r="P33" s="31"/>
-      <c r="R33" s="19">
+      <c r="P33" s="23"/>
+      <c r="R33" s="21">
         <f>AVERAGE(P22:P23,L22:L23,H22:H23,D22:D23)</f>
         <v>129.66125</v>
       </c>
-      <c r="S33" s="19"/>
-      <c r="T33" s="16">
+      <c r="S33" s="21"/>
+      <c r="T33" s="17">
         <f>AVERAGE(R22:R23,N22:N23,J22:J23,F22:F23)</f>
         <v>92.704999999999998</v>
       </c>
-      <c r="U33" s="16"/>
-      <c r="W33" s="25" t="s">
+      <c r="U33" s="17"/>
+      <c r="W33" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="X33" s="16"/>
+      <c r="X33" s="20"/>
+      <c r="Y33" s="20"/>
     </row>
     <row r="34" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C34" s="16" t="s">
+      <c r="C34" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="D34" s="16"/>
-      <c r="E34" s="16" t="s">
+      <c r="D34" s="17"/>
+      <c r="E34" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="F34" s="16"/>
-      <c r="H34" s="25" t="s">
+      <c r="F34" s="17"/>
+      <c r="H34" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="I34" s="16"/>
-      <c r="J34" s="25" t="s">
+      <c r="I34" s="17"/>
+      <c r="J34" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="K34" s="16"/>
-      <c r="M34" s="25" t="s">
+      <c r="K34" s="17"/>
+      <c r="M34" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="N34" s="16"/>
-      <c r="O34" s="25" t="s">
+      <c r="N34" s="17"/>
+      <c r="O34" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="P34" s="16"/>
-      <c r="R34" s="25" t="s">
+      <c r="P34" s="17"/>
+      <c r="R34" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="S34" s="16"/>
-      <c r="T34" s="25" t="s">
+      <c r="S34" s="17"/>
+      <c r="T34" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="U34" s="16"/>
+      <c r="U34" s="17"/>
     </row>
     <row r="35" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C35" s="31">
+      <c r="C35" s="23">
         <f>AVERAGE(E4:E5,I4:I5,M4:M5,Q4:Q5)</f>
         <v>86.34</v>
       </c>
-      <c r="D35" s="31"/>
-      <c r="E35" s="16">
+      <c r="D35" s="23"/>
+      <c r="E35" s="17">
         <f>AVERAGE(G4:G5,K4:K5,O4:O5,S4:S5)</f>
         <v>92.298749999999998</v>
       </c>
-      <c r="F35" s="16"/>
-      <c r="H35" s="16">
+      <c r="F35" s="17"/>
+      <c r="H35" s="17">
         <f>AVERAGE(E10:E11,I10:I11,M10:M11,Q10:Q11)</f>
         <v>102.62875</v>
       </c>
-      <c r="I35" s="16"/>
-      <c r="J35" s="30">
+      <c r="I35" s="17"/>
+      <c r="J35" s="28">
         <f>AVERAGE(G10:G11,K10:K11,O10:O11,S10:S11)</f>
         <v>95.957499999999996</v>
       </c>
-      <c r="K35" s="30"/>
-      <c r="M35" s="16">
+      <c r="K35" s="28"/>
+      <c r="M35" s="17">
         <f>AVERAGE(E16:E17,I16:I17,M16:M17,Q16:Q17)</f>
         <v>96.291250000000005</v>
       </c>
-      <c r="N35" s="16"/>
-      <c r="O35" s="31">
+      <c r="N35" s="17"/>
+      <c r="O35" s="23">
         <f>AVERAGE(G16:G17,K16:K17,O16:O17,S16:S17)</f>
         <v>66.575000000000003</v>
       </c>
-      <c r="P35" s="31"/>
-      <c r="R35" s="19">
+      <c r="P35" s="23"/>
+      <c r="R35" s="21">
         <f>AVERAGE(Q22:Q23,M22:M23,I22:I23,E22:E23)</f>
         <v>127.94375000000001</v>
       </c>
-      <c r="S35" s="19"/>
-      <c r="T35" s="16">
+      <c r="S35" s="21"/>
+      <c r="T35" s="17">
         <f>AVERAGE(S22:S23,O22:O23,K22:K23,G22:G23)</f>
         <v>88.918749999999989</v>
       </c>
-      <c r="U35" s="16"/>
-      <c r="W35" s="25" t="s">
+      <c r="U35" s="17"/>
+      <c r="W35" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="X35" s="16"/>
-      <c r="Y35" s="16"/>
+      <c r="X35" s="17"/>
+      <c r="Y35" s="17"/>
     </row>
     <row r="36" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C36" s="22" t="s">
+      <c r="C36" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="H36" s="22" t="s">
+      <c r="D36" s="25"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="25"/>
+      <c r="H36" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="I36" s="18"/>
-      <c r="J36" s="18"/>
-      <c r="K36" s="18"/>
-      <c r="M36" s="22" t="s">
+      <c r="I36" s="25"/>
+      <c r="J36" s="25"/>
+      <c r="K36" s="25"/>
+      <c r="M36" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="N36" s="18"/>
-      <c r="O36" s="18"/>
-      <c r="P36" s="18"/>
-      <c r="R36" s="22" t="s">
+      <c r="N36" s="25"/>
+      <c r="O36" s="25"/>
+      <c r="P36" s="25"/>
+      <c r="R36" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="S36" s="18"/>
-      <c r="T36" s="18"/>
-      <c r="U36" s="18"/>
-      <c r="W36" s="25" t="s">
+      <c r="S36" s="25"/>
+      <c r="T36" s="25"/>
+      <c r="U36" s="25"/>
+      <c r="W36" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="X36" s="25"/>
-      <c r="Y36" s="25"/>
+      <c r="X36" s="20"/>
+      <c r="Y36" s="20"/>
     </row>
     <row r="37" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C37" s="16" t="s">
+      <c r="C37" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="D37" s="16"/>
-      <c r="E37" s="16" t="s">
+      <c r="D37" s="17"/>
+      <c r="E37" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="F37" s="16"/>
-      <c r="H37" s="25" t="s">
+      <c r="F37" s="17"/>
+      <c r="H37" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="I37" s="16"/>
-      <c r="J37" s="25" t="s">
+      <c r="I37" s="17"/>
+      <c r="J37" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="K37" s="16"/>
-      <c r="M37" s="25" t="s">
+      <c r="K37" s="17"/>
+      <c r="M37" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="N37" s="16"/>
-      <c r="O37" s="25" t="s">
+      <c r="N37" s="17"/>
+      <c r="O37" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="P37" s="16"/>
-      <c r="R37" s="25" t="s">
+      <c r="P37" s="17"/>
+      <c r="R37" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="S37" s="16"/>
-      <c r="T37" s="25" t="s">
+      <c r="S37" s="17"/>
+      <c r="T37" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="U37" s="16"/>
+      <c r="U37" s="17"/>
     </row>
     <row r="38" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C38" s="16">
+      <c r="C38" s="17">
         <f>AVERAGE(D6:D7,H6:H7,L6:L7,P6:P7)</f>
         <v>118.80624999999999</v>
       </c>
-      <c r="D38" s="16"/>
-      <c r="E38" s="16">
+      <c r="D38" s="17"/>
+      <c r="E38" s="17">
         <f>AVERAGE(F6:F7,J6:J7,N6:N7,R6:R7)</f>
         <v>98.509999999999991</v>
       </c>
-      <c r="F38" s="16"/>
-      <c r="H38" s="16">
+      <c r="F38" s="17"/>
+      <c r="H38" s="17">
         <f>AVERAGE(D12:D13,H12:H13,L12:L13,P12:P13)</f>
         <v>103.39124999999999</v>
       </c>
-      <c r="I38" s="16"/>
-      <c r="J38" s="30">
+      <c r="I38" s="17"/>
+      <c r="J38" s="28">
         <f>AVERAGE(F12:F13,J12:J13,N12:N13,R12:R13)</f>
         <v>103.95875000000001</v>
       </c>
-      <c r="K38" s="30"/>
-      <c r="M38" s="31">
+      <c r="K38" s="28"/>
+      <c r="M38" s="23">
         <f>AVERAGE(D18:D19,H18:H19,L18:L19,P18:P19)</f>
         <v>91.759999999999991</v>
       </c>
-      <c r="N38" s="31"/>
-      <c r="O38" s="31">
+      <c r="N38" s="23"/>
+      <c r="O38" s="23">
         <f>AVERAGE(F18:F19,J18:J19,N18:N19,R18:R19)</f>
         <v>62.941249999999989</v>
       </c>
-      <c r="P38" s="31"/>
-      <c r="R38" s="29">
+      <c r="P38" s="23"/>
+      <c r="R38" s="22">
         <f>AVERAGE(P24:P25,L24:L25,H24:H25,D24:D25)</f>
         <v>138.02625</v>
       </c>
-      <c r="S38" s="29"/>
-      <c r="T38" s="16">
+      <c r="S38" s="22"/>
+      <c r="T38" s="17">
         <f>AVERAGE(R24:R25,N24:N25,J24:J25,F24:F25)</f>
         <v>97.385000000000005</v>
       </c>
-      <c r="U38" s="16"/>
+      <c r="U38" s="17"/>
     </row>
     <row r="39" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C39" s="16" t="s">
+      <c r="C39" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="D39" s="16"/>
-      <c r="E39" s="16" t="s">
+      <c r="D39" s="17"/>
+      <c r="E39" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="F39" s="16"/>
-      <c r="H39" s="25" t="s">
+      <c r="F39" s="17"/>
+      <c r="H39" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="I39" s="16"/>
-      <c r="J39" s="25" t="s">
+      <c r="I39" s="17"/>
+      <c r="J39" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="K39" s="16"/>
-      <c r="M39" s="25" t="s">
+      <c r="K39" s="17"/>
+      <c r="M39" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="N39" s="16"/>
-      <c r="O39" s="25" t="s">
+      <c r="N39" s="17"/>
+      <c r="O39" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="P39" s="16"/>
-      <c r="R39" s="25" t="s">
+      <c r="P39" s="17"/>
+      <c r="R39" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="S39" s="16"/>
-      <c r="T39" s="25" t="s">
+      <c r="S39" s="17"/>
+      <c r="T39" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="U39" s="16"/>
+      <c r="U39" s="17"/>
     </row>
     <row r="40" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C40" s="16">
+      <c r="C40" s="17">
         <f>AVERAGE(E6:E7,I6:I7,M6:M7,Q6:Q7)</f>
         <v>94.762500000000017</v>
       </c>
-      <c r="D40" s="16"/>
-      <c r="E40" s="16">
+      <c r="D40" s="17"/>
+      <c r="E40" s="17">
         <f>AVERAGE(G6:G7,K6:K7,O6:O7,S6:S7)</f>
         <v>96.733750000000001</v>
       </c>
-      <c r="F40" s="16"/>
-      <c r="H40" s="16">
+      <c r="F40" s="17"/>
+      <c r="H40" s="17">
         <f>AVERAGE(E12:E13,I12:I13,M12:M13,Q12:Q13)</f>
         <v>107.42125</v>
       </c>
-      <c r="I40" s="16"/>
-      <c r="J40" s="30">
+      <c r="I40" s="17"/>
+      <c r="J40" s="28">
         <f>AVERAGE(G12:G13,K12:K13,O12:O13,S12:S13)</f>
         <v>101.59250000000002</v>
       </c>
-      <c r="K40" s="30"/>
-      <c r="M40" s="31">
+      <c r="K40" s="28"/>
+      <c r="M40" s="23">
         <f>AVERAGE(E18:E19,I18:I19,M18:M19,Q18:Q19)</f>
         <v>94.408749999999998</v>
       </c>
-      <c r="N40" s="31"/>
-      <c r="O40" s="31">
+      <c r="N40" s="23"/>
+      <c r="O40" s="23">
         <f>AVERAGE(G18:G19,K18:K19,O18:O19,S18:S19)</f>
         <v>59.266249999999999</v>
       </c>
-      <c r="P40" s="31"/>
-      <c r="R40" s="19">
+      <c r="P40" s="23"/>
+      <c r="R40" s="21">
         <f>AVERAGE(Q24:Q25,M24:M25,I24:I25,E24:E25)</f>
         <v>132.72125</v>
       </c>
-      <c r="S40" s="19"/>
-      <c r="T40" s="16">
+      <c r="S40" s="21"/>
+      <c r="T40" s="17">
         <f>AVERAGE(S24:S25,O24:O25,K24:K25,G24:G25)</f>
         <v>93.542500000000004</v>
       </c>
-      <c r="U40" s="16"/>
+      <c r="U40" s="17"/>
     </row>
     <row r="41" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C41" s="24" t="s">
+      <c r="C41" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="D41" s="20"/>
-      <c r="E41" s="20"/>
-      <c r="F41" s="20"/>
-      <c r="H41" s="24" t="s">
+      <c r="D41" s="27"/>
+      <c r="E41" s="27"/>
+      <c r="F41" s="27"/>
+      <c r="H41" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="I41" s="20"/>
-      <c r="J41" s="20"/>
-      <c r="K41" s="20"/>
-      <c r="M41" s="24" t="s">
+      <c r="I41" s="27"/>
+      <c r="J41" s="27"/>
+      <c r="K41" s="27"/>
+      <c r="M41" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="N41" s="20"/>
-      <c r="O41" s="20"/>
-      <c r="P41" s="20"/>
-      <c r="R41" s="24" t="s">
+      <c r="N41" s="27"/>
+      <c r="O41" s="27"/>
+      <c r="P41" s="27"/>
+      <c r="R41" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="S41" s="20"/>
-      <c r="T41" s="20"/>
-      <c r="U41" s="20"/>
+      <c r="S41" s="27"/>
+      <c r="T41" s="27"/>
+      <c r="U41" s="27"/>
     </row>
     <row r="42" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C42" s="25" t="s">
+      <c r="C42" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="D42" s="16"/>
-      <c r="E42" s="16" t="s">
+      <c r="D42" s="17"/>
+      <c r="E42" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="F42" s="16"/>
-      <c r="H42" s="25" t="s">
+      <c r="F42" s="17"/>
+      <c r="H42" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="I42" s="16"/>
-      <c r="J42" s="25" t="s">
+      <c r="I42" s="17"/>
+      <c r="J42" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="K42" s="16"/>
-      <c r="M42" s="25" t="s">
+      <c r="K42" s="17"/>
+      <c r="M42" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="N42" s="16"/>
-      <c r="O42" s="25" t="s">
+      <c r="N42" s="17"/>
+      <c r="O42" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="P42" s="16"/>
-      <c r="R42" s="25" t="s">
+      <c r="P42" s="17"/>
+      <c r="R42" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="S42" s="16"/>
-      <c r="T42" s="25" t="s">
+      <c r="S42" s="17"/>
+      <c r="T42" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="U42" s="16"/>
+      <c r="U42" s="17"/>
     </row>
     <row r="43" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C43" s="16">
+      <c r="C43" s="17">
         <f>AVERAGE(D8:D9,H8:H9,L8:L9,P8:P9)</f>
         <v>107.55624999999999</v>
       </c>
-      <c r="D43" s="16"/>
-      <c r="E43" s="31">
+      <c r="D43" s="17"/>
+      <c r="E43" s="23">
         <f>AVERAGE(F8:F9,J8:J9,N8:N9,R8:R9)</f>
         <v>91.908749999999984</v>
       </c>
-      <c r="F43" s="31"/>
-      <c r="H43" s="19">
+      <c r="F43" s="23"/>
+      <c r="H43" s="21">
         <f>AVERAGE(D14:D15,H14:H15,L14:L15,P14:P15)</f>
         <v>105.66374999999999</v>
       </c>
-      <c r="I43" s="19"/>
-      <c r="J43" s="29">
+      <c r="I43" s="21"/>
+      <c r="J43" s="22">
         <f>AVERAGE(F14:F15,J14:J15,N14:N15,R14:R15)</f>
         <v>110.11625000000001</v>
       </c>
-      <c r="K43" s="29"/>
-      <c r="M43" s="31">
+      <c r="K43" s="22"/>
+      <c r="M43" s="23">
         <f>AVERAGE(D20:D21,H20:H21,L20:L21,P20:P21)</f>
         <v>92.936250000000015</v>
       </c>
-      <c r="N43" s="31"/>
-      <c r="O43" s="16">
+      <c r="N43" s="23"/>
+      <c r="O43" s="17">
         <f>AVERAGE(F20:F21,J20:J21,N20:N21,R20:R21)</f>
         <v>94.741249999999994</v>
       </c>
-      <c r="P43" s="16"/>
-      <c r="R43" s="16">
+      <c r="P43" s="17"/>
+      <c r="R43" s="17">
         <f>AVERAGE(P26:P27,L26:L27,H26:H27,D26:D27)</f>
         <v>104.40375</v>
       </c>
-      <c r="S43" s="16"/>
-      <c r="T43" s="16">
+      <c r="S43" s="17"/>
+      <c r="T43" s="17">
         <f>AVERAGE(F26:F27,J26:J27,N26:N27,R26:R27)</f>
         <v>93.461249999999993</v>
       </c>
-      <c r="U43" s="16"/>
+      <c r="U43" s="17"/>
     </row>
     <row r="44" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C44" s="16" t="s">
+      <c r="C44" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="D44" s="16"/>
-      <c r="E44" s="16" t="s">
+      <c r="D44" s="17"/>
+      <c r="E44" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="F44" s="16"/>
-      <c r="H44" s="25" t="s">
+      <c r="F44" s="17"/>
+      <c r="H44" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="I44" s="16"/>
-      <c r="J44" s="25" t="s">
+      <c r="I44" s="17"/>
+      <c r="J44" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="K44" s="16"/>
-      <c r="M44" s="25" t="s">
+      <c r="K44" s="17"/>
+      <c r="M44" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="N44" s="16"/>
-      <c r="O44" s="25" t="s">
+      <c r="N44" s="17"/>
+      <c r="O44" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="P44" s="16"/>
-      <c r="R44" s="25" t="s">
+      <c r="P44" s="17"/>
+      <c r="R44" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="S44" s="16"/>
-      <c r="T44" s="25" t="s">
+      <c r="S44" s="17"/>
+      <c r="T44" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="U44" s="16"/>
+      <c r="U44" s="17"/>
     </row>
     <row r="45" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C45" s="16">
+      <c r="C45" s="17">
         <f>AVERAGE(E8:E9,I8:I9,M8:M9,Q8:Q9)</f>
         <v>99.553750000000008</v>
       </c>
-      <c r="D45" s="16"/>
-      <c r="E45" s="31">
+      <c r="D45" s="17"/>
+      <c r="E45" s="23">
         <f>AVERAGE(G8:G9,K8:K9,O8:O9,S8:S9)</f>
         <v>83.960000000000008</v>
       </c>
-      <c r="F45" s="31"/>
-      <c r="H45" s="19">
+      <c r="F45" s="23"/>
+      <c r="H45" s="21">
         <f>AVERAGE(E14:E15,I14:I15,M14:M15,Q14:Q15)</f>
         <v>112.05249999999999</v>
       </c>
-      <c r="I45" s="19"/>
-      <c r="J45" s="29">
+      <c r="I45" s="21"/>
+      <c r="J45" s="22">
         <f>AVERAGE(G14:G15,K14:K15,O14:O15,S14:S15)</f>
         <v>105.32250000000001</v>
       </c>
-      <c r="K45" s="29"/>
-      <c r="M45" s="31">
+      <c r="K45" s="22"/>
+      <c r="M45" s="23">
         <f>AVERAGE(E20:E21,I20:I21,M20:M21,Q20:Q21)</f>
         <v>90.872500000000002</v>
       </c>
-      <c r="N45" s="31"/>
-      <c r="O45" s="16">
+      <c r="N45" s="23"/>
+      <c r="O45" s="17">
         <f>AVERAGE(G20:G21,K20:K21,O20:O21,S20:S21)</f>
         <v>89.003749999999997</v>
       </c>
-      <c r="P45" s="16"/>
-      <c r="R45" s="16">
+      <c r="P45" s="17"/>
+      <c r="R45" s="17">
         <f>AVERAGE(E26:E27,I26:I27,M26:M27,Q26:Q27)</f>
         <v>110.88500000000001</v>
       </c>
-      <c r="S45" s="16"/>
-      <c r="T45" s="16">
+      <c r="S45" s="17"/>
+      <c r="T45" s="17">
         <f>AVERAGE(G26:G27,K26:K27,O26:O27,S26:S27)</f>
         <v>92.802500000000009</v>
       </c>
-      <c r="U45" s="16"/>
+      <c r="U45" s="17"/>
     </row>
     <row r="46" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C46" s="26"/>
-      <c r="D46" s="21"/>
-      <c r="E46" s="21"/>
-      <c r="F46" s="21"/>
-      <c r="H46" s="26"/>
-      <c r="I46" s="21"/>
-      <c r="J46" s="21"/>
-      <c r="K46" s="21"/>
-      <c r="M46" s="26"/>
-      <c r="N46" s="21"/>
-      <c r="O46" s="21"/>
-      <c r="P46" s="21"/>
-      <c r="R46" s="26"/>
-      <c r="S46" s="21"/>
-      <c r="T46" s="21"/>
-      <c r="U46" s="21"/>
+      <c r="C46" s="18"/>
+      <c r="D46" s="19"/>
+      <c r="E46" s="19"/>
+      <c r="F46" s="19"/>
+      <c r="H46" s="18"/>
+      <c r="I46" s="19"/>
+      <c r="J46" s="19"/>
+      <c r="K46" s="19"/>
+      <c r="M46" s="18"/>
+      <c r="N46" s="19"/>
+      <c r="O46" s="19"/>
+      <c r="P46" s="19"/>
+      <c r="R46" s="18"/>
+      <c r="S46" s="19"/>
+      <c r="T46" s="19"/>
+      <c r="U46" s="19"/>
     </row>
     <row r="48" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C48" s="25" t="s">
+      <c r="C48" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="D48" s="25"/>
-      <c r="E48" s="25" t="s">
+      <c r="D48" s="20"/>
+      <c r="E48" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="F48" s="25"/>
-      <c r="H48" s="25" t="s">
+      <c r="F48" s="20"/>
+      <c r="H48" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="I48" s="25"/>
-      <c r="J48" s="25" t="s">
+      <c r="I48" s="20"/>
+      <c r="J48" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="K48" s="25"/>
-      <c r="M48" s="25" t="s">
+      <c r="K48" s="20"/>
+      <c r="M48" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="N48" s="25"/>
-      <c r="O48" s="25" t="s">
+      <c r="N48" s="20"/>
+      <c r="O48" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="P48" s="25"/>
-      <c r="R48" s="25" t="s">
+      <c r="P48" s="20"/>
+      <c r="R48" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="S48" s="25"/>
-      <c r="T48" s="25" t="s">
+      <c r="S48" s="20"/>
+      <c r="T48" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="U48" s="25"/>
+      <c r="U48" s="20"/>
     </row>
     <row r="49" spans="3:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C49" s="25">
+      <c r="C49" s="20">
         <f>AVERAGE(C33,C38,C43)</f>
         <v>104.20625</v>
       </c>
-      <c r="D49" s="25"/>
-      <c r="E49" s="25">
+      <c r="D49" s="20"/>
+      <c r="E49" s="20">
         <f>AVERAGE(E33,E38,E43)</f>
         <v>93.824583333333337</v>
       </c>
-      <c r="F49" s="25"/>
-      <c r="H49" s="16">
+      <c r="F49" s="20"/>
+      <c r="H49" s="17">
         <f>AVERAGE(H33,H38,H43)</f>
         <v>106.50833333333333</v>
       </c>
-      <c r="I49" s="16"/>
-      <c r="J49" s="16">
+      <c r="I49" s="17"/>
+      <c r="J49" s="17">
         <f>AVERAGE(J33,J38,J43)</f>
         <v>105.56875000000001</v>
       </c>
-      <c r="K49" s="16"/>
-      <c r="M49" s="16">
+      <c r="K49" s="17"/>
+      <c r="M49" s="17">
         <f>AVERAGE(M33,M38,M43)</f>
         <v>94.71</v>
       </c>
-      <c r="N49" s="16"/>
-      <c r="O49" s="16">
+      <c r="N49" s="17"/>
+      <c r="O49" s="17">
         <f>AVERAGE(O33,O38,O43)</f>
         <v>75.917083333333323</v>
       </c>
-      <c r="P49" s="16"/>
-      <c r="R49" s="16">
+      <c r="P49" s="17"/>
+      <c r="R49" s="17">
         <f>AVERAGE(R33,R38,R43)</f>
         <v>124.03041666666667</v>
       </c>
-      <c r="S49" s="16"/>
-      <c r="T49" s="16">
+      <c r="S49" s="17"/>
+      <c r="T49" s="17">
         <f>AVERAGE(T33,T38,T43)</f>
         <v>94.517083333333332</v>
       </c>
-      <c r="U49" s="16"/>
+      <c r="U49" s="17"/>
     </row>
     <row r="50" spans="3:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C50" s="25" t="s">
+      <c r="C50" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="D50" s="25"/>
-      <c r="E50" s="25" t="s">
+      <c r="D50" s="20"/>
+      <c r="E50" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="F50" s="25"/>
-      <c r="H50" s="25" t="s">
+      <c r="F50" s="20"/>
+      <c r="H50" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="I50" s="25"/>
-      <c r="J50" s="25" t="s">
+      <c r="I50" s="20"/>
+      <c r="J50" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="K50" s="25"/>
-      <c r="M50" s="25" t="s">
+      <c r="K50" s="20"/>
+      <c r="M50" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="N50" s="25"/>
-      <c r="O50" s="25" t="s">
+      <c r="N50" s="20"/>
+      <c r="O50" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="P50" s="25"/>
-      <c r="R50" s="25" t="s">
+      <c r="P50" s="20"/>
+      <c r="R50" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="S50" s="25"/>
-      <c r="T50" s="25" t="s">
+      <c r="S50" s="20"/>
+      <c r="T50" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="U50" s="25"/>
+      <c r="U50" s="20"/>
     </row>
     <row r="51" spans="3:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C51" s="16">
+      <c r="C51" s="17">
         <f>AVERAGE(C35,C40,C45)</f>
         <v>93.552083333333329</v>
       </c>
-      <c r="D51" s="16"/>
-      <c r="E51" s="16">
+      <c r="D51" s="17"/>
+      <c r="E51" s="17">
         <f>AVERAGE(E35,E40,E45)</f>
         <v>90.997500000000002</v>
       </c>
-      <c r="F51" s="16"/>
-      <c r="H51" s="16">
+      <c r="F51" s="17"/>
+      <c r="H51" s="17">
         <f>AVERAGE(H35,H40,H45)</f>
         <v>107.36750000000001</v>
       </c>
-      <c r="I51" s="16"/>
-      <c r="J51" s="16">
+      <c r="I51" s="17"/>
+      <c r="J51" s="17">
         <f>AVERAGE(J35,J40,J45)</f>
         <v>100.9575</v>
       </c>
-      <c r="K51" s="16"/>
-      <c r="M51" s="16">
+      <c r="K51" s="17"/>
+      <c r="M51" s="17">
         <f>AVERAGE(M35,M40,M45)</f>
         <v>93.857500000000002</v>
       </c>
-      <c r="N51" s="16"/>
-      <c r="O51" s="16">
+      <c r="N51" s="17"/>
+      <c r="O51" s="17">
         <f>AVERAGE(O35,O40,O45)</f>
         <v>71.614999999999995</v>
       </c>
-      <c r="P51" s="16"/>
-      <c r="R51" s="16">
+      <c r="P51" s="17"/>
+      <c r="R51" s="17">
         <f>AVERAGE(R35,R40,R45)</f>
         <v>123.85000000000001</v>
       </c>
-      <c r="S51" s="16"/>
-      <c r="T51" s="16">
+      <c r="S51" s="17"/>
+      <c r="T51" s="17">
         <f>AVERAGE(T35,T40,T45)</f>
         <v>91.754583333333343</v>
       </c>
-      <c r="U51" s="16"/>
+      <c r="U51" s="17"/>
     </row>
     <row r="53" spans="3:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C53" s="26"/>
-      <c r="D53" s="21"/>
-      <c r="E53" s="21"/>
-      <c r="F53" s="21"/>
-      <c r="H53" s="26"/>
-      <c r="I53" s="21"/>
-      <c r="J53" s="21"/>
-      <c r="K53" s="21"/>
-      <c r="M53" s="26"/>
-      <c r="N53" s="21"/>
-      <c r="O53" s="21"/>
-      <c r="P53" s="21"/>
-      <c r="R53" s="26"/>
-      <c r="S53" s="21"/>
-      <c r="T53" s="21"/>
-      <c r="U53" s="21"/>
+      <c r="C53" s="18"/>
+      <c r="D53" s="19"/>
+      <c r="E53" s="19"/>
+      <c r="F53" s="19"/>
+      <c r="H53" s="18"/>
+      <c r="I53" s="19"/>
+      <c r="J53" s="19"/>
+      <c r="K53" s="19"/>
+      <c r="M53" s="18"/>
+      <c r="N53" s="19"/>
+      <c r="O53" s="19"/>
+      <c r="P53" s="19"/>
+      <c r="R53" s="18"/>
+      <c r="S53" s="19"/>
+      <c r="T53" s="19"/>
+      <c r="U53" s="19"/>
+    </row>
+    <row r="58" spans="3:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D58" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="E58" s="34"/>
+      <c r="F58" s="34"/>
+      <c r="G58" s="34"/>
+      <c r="H58" s="34"/>
+      <c r="I58" s="34"/>
+      <c r="J58" s="34"/>
+      <c r="M58" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="N58" s="34"/>
+      <c r="O58" s="34"/>
+      <c r="P58" s="34"/>
+      <c r="Q58" s="34"/>
+      <c r="R58" s="34"/>
+      <c r="S58" s="34"/>
+    </row>
+    <row r="59" spans="3:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D59" s="15"/>
+      <c r="E59" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="F59" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="G59" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="H59" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="I59" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="J59" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="M59" s="15"/>
+      <c r="N59" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="O59" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="P59" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q59" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="R59" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="S59" s="15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D60" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="E60">
+        <f>J33</f>
+        <v>102.63124999999999</v>
+      </c>
+      <c r="F60">
+        <f>J35</f>
+        <v>95.957499999999996</v>
+      </c>
+      <c r="G60">
+        <f>J38</f>
+        <v>103.95875000000001</v>
+      </c>
+      <c r="H60">
+        <f>J40</f>
+        <v>101.59250000000002</v>
+      </c>
+      <c r="I60">
+        <f>J43</f>
+        <v>110.11625000000001</v>
+      </c>
+      <c r="J60">
+        <f>J45</f>
+        <v>105.32250000000001</v>
+      </c>
+      <c r="M60" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="N60">
+        <f>R33</f>
+        <v>129.66125</v>
+      </c>
+      <c r="O60">
+        <f>R35</f>
+        <v>127.94375000000001</v>
+      </c>
+      <c r="P60">
+        <f>R38</f>
+        <v>138.02625</v>
+      </c>
+      <c r="Q60">
+        <f>R40</f>
+        <v>132.72125</v>
+      </c>
+      <c r="R60">
+        <f>R43</f>
+        <v>104.40375</v>
+      </c>
+      <c r="S60">
+        <f>R45</f>
+        <v>110.88500000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D61" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="E61">
+        <f>O33</f>
+        <v>70.068749999999994</v>
+      </c>
+      <c r="F61">
+        <f>O35</f>
+        <v>66.575000000000003</v>
+      </c>
+      <c r="G61">
+        <f>O40</f>
+        <v>59.266249999999999</v>
+      </c>
+      <c r="H61">
+        <f>O40</f>
+        <v>59.266249999999999</v>
+      </c>
+      <c r="I61">
+        <f>O43</f>
+        <v>94.741249999999994</v>
+      </c>
+      <c r="J61">
+        <f>O45</f>
+        <v>89.003749999999997</v>
+      </c>
+      <c r="M61" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="N61">
+        <f>M33</f>
+        <v>99.433750000000003</v>
+      </c>
+      <c r="O61">
+        <f>M35</f>
+        <v>96.291250000000005</v>
+      </c>
+      <c r="P61">
+        <f>M38</f>
+        <v>91.759999999999991</v>
+      </c>
+      <c r="Q61">
+        <f>M40</f>
+        <v>94.408749999999998</v>
+      </c>
+      <c r="R61">
+        <f>M43</f>
+        <v>92.936250000000015</v>
+      </c>
+      <c r="S61">
+        <f>M45</f>
+        <v>90.872500000000002</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C62" s="15"/>
+      <c r="D62" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="E62">
+        <f>E60-E61</f>
+        <v>32.5625</v>
+      </c>
+      <c r="F62" s="14">
+        <f>F60-F61</f>
+        <v>29.382499999999993</v>
+      </c>
+      <c r="G62" s="14">
+        <f t="shared" ref="G62:J62" si="1">G60-G61</f>
+        <v>44.69250000000001</v>
+      </c>
+      <c r="H62" s="14">
+        <f t="shared" si="1"/>
+        <v>42.326250000000016</v>
+      </c>
+      <c r="I62" s="14">
+        <f t="shared" si="1"/>
+        <v>15.375000000000014</v>
+      </c>
+      <c r="J62" s="14">
+        <f t="shared" si="1"/>
+        <v>16.318750000000009</v>
+      </c>
+      <c r="M62" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="N62">
+        <f>N60-N61</f>
+        <v>30.227499999999992</v>
+      </c>
+      <c r="O62">
+        <f>O60-O61</f>
+        <v>31.652500000000003</v>
+      </c>
+      <c r="P62" s="14">
+        <f t="shared" ref="P62:S62" si="2">P60-P61</f>
+        <v>46.266250000000014</v>
+      </c>
+      <c r="Q62" s="14">
+        <f t="shared" si="2"/>
+        <v>38.3125</v>
+      </c>
+      <c r="R62" s="14">
+        <f t="shared" si="2"/>
+        <v>11.467499999999987</v>
+      </c>
+      <c r="S62" s="14">
+        <f t="shared" si="2"/>
+        <v>20.012500000000003</v>
+      </c>
+    </row>
+    <row r="84" spans="9:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I84" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="J84" s="33"/>
+      <c r="K84" s="33"/>
+      <c r="L84" s="33"/>
+      <c r="M84" s="33"/>
+      <c r="N84" s="33"/>
+      <c r="O84" s="33"/>
+      <c r="P84" s="33"/>
+      <c r="Q84" s="33"/>
+    </row>
+    <row r="85" spans="9:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J85" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="K85" s="20"/>
+      <c r="L85" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="M85" s="20"/>
+      <c r="N85" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="O85" s="20"/>
+      <c r="P85" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q85" s="20"/>
+    </row>
+    <row r="86" spans="9:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I86" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="J86" s="17">
+        <f>H49</f>
+        <v>106.50833333333333</v>
+      </c>
+      <c r="K86" s="17"/>
+      <c r="L86" s="17">
+        <f>J49</f>
+        <v>105.56875000000001</v>
+      </c>
+      <c r="M86" s="17"/>
+      <c r="N86" s="17">
+        <f>H51</f>
+        <v>107.36750000000001</v>
+      </c>
+      <c r="O86" s="17"/>
+      <c r="P86" s="17">
+        <f>J51</f>
+        <v>100.9575</v>
+      </c>
+      <c r="Q86" s="17"/>
+    </row>
+    <row r="87" spans="9:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I87" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="J87" s="17">
+        <f>M49</f>
+        <v>94.71</v>
+      </c>
+      <c r="K87" s="17"/>
+      <c r="L87" s="17">
+        <f>O49</f>
+        <v>75.917083333333323</v>
+      </c>
+      <c r="M87" s="17"/>
+      <c r="N87" s="17">
+        <f>M51</f>
+        <v>93.857500000000002</v>
+      </c>
+      <c r="O87" s="17"/>
+      <c r="P87" s="17">
+        <f>O51</f>
+        <v>71.614999999999995</v>
+      </c>
+      <c r="Q87" s="17"/>
+    </row>
+    <row r="88" spans="9:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I88" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="J88" s="17">
+        <f>R49</f>
+        <v>124.03041666666667</v>
+      </c>
+      <c r="K88" s="17"/>
+      <c r="L88" s="17">
+        <f>T49</f>
+        <v>94.517083333333332</v>
+      </c>
+      <c r="M88" s="17"/>
+      <c r="N88" s="17">
+        <f>R51</f>
+        <v>123.85000000000001</v>
+      </c>
+      <c r="O88" s="17"/>
+      <c r="P88" s="17">
+        <f>T51</f>
+        <v>91.754583333333343</v>
+      </c>
+      <c r="Q88" s="17"/>
+    </row>
+    <row r="89" spans="9:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I89" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="J89" s="17">
+        <f>C49</f>
+        <v>104.20625</v>
+      </c>
+      <c r="K89" s="17"/>
+      <c r="L89" s="17">
+        <f>E49</f>
+        <v>93.824583333333337</v>
+      </c>
+      <c r="M89" s="17"/>
+      <c r="N89" s="17">
+        <f>C51</f>
+        <v>93.552083333333329</v>
+      </c>
+      <c r="O89" s="17"/>
+      <c r="P89" s="17">
+        <f>E51</f>
+        <v>90.997500000000002</v>
+      </c>
+      <c r="Q89" s="17"/>
+    </row>
+    <row r="113" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K113" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="L113" s="36"/>
+      <c r="M113" s="36"/>
+      <c r="N113" s="36"/>
+      <c r="O113" s="36"/>
+    </row>
+    <row r="114" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K114" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="L114" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="M114" s="17"/>
+      <c r="N114" s="17"/>
+      <c r="O114" s="17"/>
+    </row>
+    <row r="115" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K115" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="L115" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="M115" s="17"/>
+      <c r="N115" s="17"/>
+      <c r="O115" s="17"/>
+    </row>
+    <row r="116" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K116" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="L116" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="M116" s="17"/>
+      <c r="N116" s="17"/>
+      <c r="O116" s="17"/>
+    </row>
+    <row r="117" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K117" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="L117" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="M117" s="17"/>
+      <c r="N117" s="17"/>
+      <c r="O117" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="193">
-    <mergeCell ref="R51:S51"/>
-    <mergeCell ref="T51:U51"/>
-    <mergeCell ref="M53:P53"/>
-    <mergeCell ref="R53:U53"/>
-    <mergeCell ref="M48:N48"/>
-    <mergeCell ref="O48:P48"/>
-    <mergeCell ref="R48:S48"/>
-    <mergeCell ref="T48:U48"/>
-    <mergeCell ref="M50:N50"/>
-    <mergeCell ref="O50:P50"/>
-    <mergeCell ref="R50:S50"/>
-    <mergeCell ref="T50:U50"/>
-    <mergeCell ref="M49:N49"/>
-    <mergeCell ref="M51:N51"/>
-    <mergeCell ref="O49:P49"/>
-    <mergeCell ref="O51:P51"/>
-    <mergeCell ref="R49:S49"/>
-    <mergeCell ref="T49:U49"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="C53:F53"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="H53:K53"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="J51:K51"/>
-    <mergeCell ref="W32:X32"/>
-    <mergeCell ref="W33:X33"/>
-    <mergeCell ref="W35:Y35"/>
-    <mergeCell ref="W36:Y36"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="J50:K50"/>
-    <mergeCell ref="T40:U40"/>
-    <mergeCell ref="R40:S40"/>
-    <mergeCell ref="R38:S38"/>
-    <mergeCell ref="T38:U38"/>
-    <mergeCell ref="R34:S34"/>
-    <mergeCell ref="T34:U34"/>
-    <mergeCell ref="T35:U35"/>
-    <mergeCell ref="R35:S35"/>
-    <mergeCell ref="R37:S37"/>
-    <mergeCell ref="T37:U37"/>
-    <mergeCell ref="R32:S32"/>
-    <mergeCell ref="T32:U32"/>
-    <mergeCell ref="R39:S39"/>
-    <mergeCell ref="T39:U39"/>
-    <mergeCell ref="R33:S33"/>
-    <mergeCell ref="T33:U33"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="O45:P45"/>
-    <mergeCell ref="R44:S44"/>
-    <mergeCell ref="T44:U44"/>
-    <mergeCell ref="R42:S42"/>
-    <mergeCell ref="T42:U42"/>
-    <mergeCell ref="R45:S45"/>
-    <mergeCell ref="T45:U45"/>
-    <mergeCell ref="R43:S43"/>
-    <mergeCell ref="T43:U43"/>
-    <mergeCell ref="R36:U36"/>
-    <mergeCell ref="M41:P41"/>
-    <mergeCell ref="R41:U41"/>
-    <mergeCell ref="M46:P46"/>
-    <mergeCell ref="R46:U46"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="O37:P37"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="O42:P42"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="O44:P44"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="O39:P39"/>
-    <mergeCell ref="O40:P40"/>
-    <mergeCell ref="M38:N38"/>
+  <mergeCells count="221">
+    <mergeCell ref="L117:O117"/>
+    <mergeCell ref="P86:Q86"/>
+    <mergeCell ref="P87:Q87"/>
+    <mergeCell ref="P88:Q88"/>
+    <mergeCell ref="P89:Q89"/>
+    <mergeCell ref="K113:O113"/>
+    <mergeCell ref="L114:O114"/>
+    <mergeCell ref="L115:O115"/>
+    <mergeCell ref="L116:O116"/>
+    <mergeCell ref="J86:K86"/>
+    <mergeCell ref="J87:K87"/>
+    <mergeCell ref="J88:K88"/>
+    <mergeCell ref="J89:K89"/>
+    <mergeCell ref="L86:M86"/>
+    <mergeCell ref="L87:M87"/>
+    <mergeCell ref="L88:M88"/>
+    <mergeCell ref="L89:M89"/>
+    <mergeCell ref="N86:O86"/>
+    <mergeCell ref="N87:O87"/>
+    <mergeCell ref="N88:O88"/>
+    <mergeCell ref="N89:O89"/>
+    <mergeCell ref="M58:S58"/>
+    <mergeCell ref="D58:J58"/>
+    <mergeCell ref="W32:Y32"/>
+    <mergeCell ref="W33:Y33"/>
+    <mergeCell ref="J85:K85"/>
+    <mergeCell ref="L85:M85"/>
+    <mergeCell ref="N85:O85"/>
+    <mergeCell ref="P85:Q85"/>
+    <mergeCell ref="I84:Q84"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="M30:P30"/>
+    <mergeCell ref="R30:U30"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="M31:P31"/>
+    <mergeCell ref="R31:U31"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="C46:F46"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:F44"/>
     <mergeCell ref="H45:I45"/>
     <mergeCell ref="J45:K45"/>
     <mergeCell ref="H46:K46"/>
@@ -3246,95 +7154,87 @@
     <mergeCell ref="J44:K44"/>
     <mergeCell ref="H41:K41"/>
     <mergeCell ref="H38:I38"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="C46:F46"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="H30:K30"/>
-    <mergeCell ref="M30:P30"/>
-    <mergeCell ref="R30:U30"/>
-    <mergeCell ref="H31:K31"/>
-    <mergeCell ref="M31:P31"/>
-    <mergeCell ref="R31:U31"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="H36:K36"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="C41:F41"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="L1:O1"/>
-    <mergeCell ref="P1:S1"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="M46:P46"/>
+    <mergeCell ref="R46:U46"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="O37:P37"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="O42:P42"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="O44:P44"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="O39:P39"/>
+    <mergeCell ref="O40:P40"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="T39:U39"/>
+    <mergeCell ref="R33:S33"/>
+    <mergeCell ref="T33:U33"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="O45:P45"/>
+    <mergeCell ref="R44:S44"/>
+    <mergeCell ref="T44:U44"/>
+    <mergeCell ref="R42:S42"/>
+    <mergeCell ref="T42:U42"/>
+    <mergeCell ref="R45:S45"/>
+    <mergeCell ref="T45:U45"/>
+    <mergeCell ref="R43:S43"/>
+    <mergeCell ref="T43:U43"/>
+    <mergeCell ref="R36:U36"/>
+    <mergeCell ref="M41:P41"/>
+    <mergeCell ref="R41:U41"/>
+    <mergeCell ref="W35:Y35"/>
+    <mergeCell ref="W36:Y36"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="T40:U40"/>
+    <mergeCell ref="R40:S40"/>
+    <mergeCell ref="R38:S38"/>
+    <mergeCell ref="T38:U38"/>
+    <mergeCell ref="R34:S34"/>
+    <mergeCell ref="T34:U34"/>
+    <mergeCell ref="T35:U35"/>
+    <mergeCell ref="R35:S35"/>
+    <mergeCell ref="R37:S37"/>
+    <mergeCell ref="T37:U37"/>
+    <mergeCell ref="R32:S32"/>
+    <mergeCell ref="T32:U32"/>
+    <mergeCell ref="R39:S39"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="C53:F53"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="H53:K53"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="R51:S51"/>
+    <mergeCell ref="T51:U51"/>
+    <mergeCell ref="M53:P53"/>
+    <mergeCell ref="R53:U53"/>
+    <mergeCell ref="M48:N48"/>
+    <mergeCell ref="O48:P48"/>
+    <mergeCell ref="R48:S48"/>
+    <mergeCell ref="T48:U48"/>
+    <mergeCell ref="M50:N50"/>
+    <mergeCell ref="O50:P50"/>
+    <mergeCell ref="R50:S50"/>
+    <mergeCell ref="T50:U50"/>
+    <mergeCell ref="M49:N49"/>
+    <mergeCell ref="M51:N51"/>
+    <mergeCell ref="O49:P49"/>
+    <mergeCell ref="O51:P51"/>
+    <mergeCell ref="R49:S49"/>
+    <mergeCell ref="T49:U49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>